--- a/distribucion.xlsx
+++ b/distribucion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Registro_defectos_SEHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9D7B8E-C3A6-4113-8E7E-EADBEEBAAB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2C6535-FDE1-462C-BAC9-5A61457182CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{C5A581BF-84BA-4755-84C9-6391AAA71289}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="339">
   <si>
     <t>FA08</t>
   </si>
@@ -1082,6 +1082,15 @@
   </si>
   <si>
     <t>button_17</t>
+  </si>
+  <si>
+    <t>root_defect_frame0</t>
+  </si>
+  <si>
+    <t>Defectos SEHO</t>
+  </si>
+  <si>
+    <t>label_de_0</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1491,6 +1500,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2523,7 +2535,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4700,14 +4712,51 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7D2FF7-64A1-41EF-8B15-47A7AFD3DE78}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/distribucion.xlsx
+++ b/distribucion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Registro_defectos_SEHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2C6535-FDE1-462C-BAC9-5A61457182CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D501BC49-F73E-442D-A8F6-EC105866AA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{C5A581BF-84BA-4755-84C9-6391AAA71289}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{C5A581BF-84BA-4755-84C9-6391AAA71289}"/>
   </bookViews>
   <sheets>
     <sheet name="Frame0" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="371">
   <si>
     <t>FA08</t>
   </si>
@@ -652,9 +652,6 @@
     <t>TopDefectos:</t>
   </si>
   <si>
-    <t>TotalDefectos:</t>
-  </si>
-  <si>
     <t>%Defectos:</t>
   </si>
   <si>
@@ -1081,9 +1078,6 @@
     <t>button_16</t>
   </si>
   <si>
-    <t>button_17</t>
-  </si>
-  <si>
     <t>root_defect_frame0</t>
   </si>
   <si>
@@ -1091,6 +1085,108 @@
   </si>
   <si>
     <t>label_de_0</t>
+  </si>
+  <si>
+    <t>Cant.Defecto:</t>
+  </si>
+  <si>
+    <t>Row_9</t>
+  </si>
+  <si>
+    <t>Row_10</t>
+  </si>
+  <si>
+    <t>label_154</t>
+  </si>
+  <si>
+    <t>label_155</t>
+  </si>
+  <si>
+    <t>label_156</t>
+  </si>
+  <si>
+    <t>label_157</t>
+  </si>
+  <si>
+    <t>label_158</t>
+  </si>
+  <si>
+    <t>label_159</t>
+  </si>
+  <si>
+    <t>label_160</t>
+  </si>
+  <si>
+    <t>label_161</t>
+  </si>
+  <si>
+    <t>label_162</t>
+  </si>
+  <si>
+    <t>label_163</t>
+  </si>
+  <si>
+    <t>label_164</t>
+  </si>
+  <si>
+    <t>label_165</t>
+  </si>
+  <si>
+    <t>label_166</t>
+  </si>
+  <si>
+    <t>label_167</t>
+  </si>
+  <si>
+    <t>label_168</t>
+  </si>
+  <si>
+    <t>label_169</t>
+  </si>
+  <si>
+    <t>label_170</t>
+  </si>
+  <si>
+    <t>label_171</t>
+  </si>
+  <si>
+    <t>label_172</t>
+  </si>
+  <si>
+    <t>label_173</t>
+  </si>
+  <si>
+    <t>label_174</t>
+  </si>
+  <si>
+    <t>label_175</t>
+  </si>
+  <si>
+    <t>label_176</t>
+  </si>
+  <si>
+    <t>label_177</t>
+  </si>
+  <si>
+    <t>label_178</t>
+  </si>
+  <si>
+    <t>TotalDefect:</t>
+  </si>
+  <si>
+    <t>TotalProduc:</t>
+  </si>
+  <si>
+    <t>label_179</t>
+  </si>
+  <si>
+    <t>label_180</t>
+  </si>
+  <si>
+    <t>TopDefect:</t>
+  </si>
+  <si>
+    <t>Cant.Defect:</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1270,13 +1366,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF3737"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,12 +1549,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1483,13 +1579,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1501,8 +1597,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2668,18 +2770,18 @@
       <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
@@ -2838,12 +2940,12 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2855,10 +2957,10 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2902,18 +3004,18 @@
       <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
     </row>
     <row r="15" spans="1:11" ht="24" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
@@ -3132,12 +3234,12 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -3149,12 +3251,12 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3512,14 +3614,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85BEB1E-8402-4209-AC46-FA5A75617005}">
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:AC38"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="17" max="25" width="11.5703125" customWidth="1"/>
     <col min="26" max="29" width="12.5703125" customWidth="1"/>
   </cols>
@@ -3569,1009 +3672,1177 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="29" t="s">
         <v>183</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="29" t="s">
         <v>184</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="29" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="29" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="R2" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="S2" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="T2" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="U2" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="V2" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="V2" s="33" t="s">
+      <c r="W2" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="X2" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="X2" s="33" t="s">
+      <c r="Y2" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Z2" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="Z2" s="33" t="s">
+      <c r="AA2" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="AA2" s="33" t="s">
+      <c r="AB2" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="AB2" s="33" t="s">
+      <c r="AC2" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="AC2" s="34" t="s">
-        <v>309</v>
-      </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
-      <c r="Q3" s="35" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="Q3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="36" t="s">
+      <c r="T3" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="U3" s="36" t="s">
+      <c r="U3" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="36" t="s">
+      <c r="V3" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="36" t="s">
+      <c r="W3" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="X3" s="36" t="s">
+      <c r="X3" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="Y3" s="36" t="s">
+      <c r="Y3" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="Z3" s="36" t="s">
+      <c r="Z3" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="AA3" s="36" t="s">
+      <c r="AA3" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="AB3" s="36" t="s">
+      <c r="AB3" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AC3" s="35" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="29"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="27"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="17"/>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="28" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="27"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="29"/>
+      <c r="B8" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="27"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="29"/>
+      <c r="B9" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="27"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
+      <c r="B10" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="27"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="27"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="27"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="29"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="29"/>
+        <v>41</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="29"/>
+        <v>11</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="27"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="K17" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="L17" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>189</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="27"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="29"/>
+        <v>55</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="27"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="29"/>
+        <v>56</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="27"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="27"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B22" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="27"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="27"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="27"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B25" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="29"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="29"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="27"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L27" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M27" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N27" s="4" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="M24" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="N24" s="22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="K25" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="L25" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="M25" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="N25" s="29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="K26" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="L26" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="M26" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="N26" s="29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="J27" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="K27" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="L27" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="M27" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="N27" s="29" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="K28" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="L28" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="M28" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="N28" s="30" t="s">
-        <v>321</v>
+        <v>41</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="J29" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="K29" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="L29" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="M29" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="N29" s="29" t="s">
-        <v>257</v>
+        <v>53</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="M29" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="N29" s="27" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="J30" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="K30" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="L30" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="M30" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="N30" s="29" t="s">
-        <v>270</v>
+        <v>54</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="L30" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="N30" s="27" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="J31" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="K31" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="L31" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="M31" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="N31" s="29" t="s">
-        <v>283</v>
+        <v>55</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="L31" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="M31" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="N31" s="27" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="K32" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="L32" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="M32" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="N32" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="M33" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="M34" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="L35" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="M35" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="N35" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B36" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="C36" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="D36" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="E36" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="F36" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="G36" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="H36" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="I36" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="I32" s="28" t="s">
+      <c r="J36" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="J32" s="29" t="s">
+      <c r="K36" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="K32" s="28" t="s">
+      <c r="L36" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="L32" s="29" t="s">
+      <c r="M36" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="M32" s="28" t="s">
+      <c r="N36" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="N32" s="29" t="s">
-        <v>296</v>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="K37" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="L37" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="M37" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="N37" s="27" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="K38" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="L38" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="N38" s="27" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -4587,8 +4858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B91243-A115-4684-A5E9-C7F45B75B539}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4599,7 +4870,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>42</v>
@@ -4624,34 +4895,34 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="44" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>327</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>325</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>42</v>
@@ -4676,29 +4947,29 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="44" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>332</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="12:12" x14ac:dyDescent="0.25">
@@ -4714,19 +4985,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7D2FF7-64A1-41EF-8B15-47A7AFD3DE78}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="44" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>42</v>
@@ -4737,12 +5008,12 @@
         <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>42</v>
@@ -4753,7 +5024,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/distribucion.xlsx
+++ b/distribucion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Registro_defectos_SEHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D501BC49-F73E-442D-A8F6-EC105866AA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1B7020-DFF9-4C00-BD25-AEEA8ED4C917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{C5A581BF-84BA-4755-84C9-6391AAA71289}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{C5A581BF-84BA-4755-84C9-6391AAA71289}"/>
   </bookViews>
   <sheets>
     <sheet name="Frame0" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Frame4" sheetId="6" r:id="rId5"/>
     <sheet name="Frame5" sheetId="7" r:id="rId6"/>
     <sheet name="root_defect" sheetId="8" r:id="rId7"/>
+    <sheet name="frame0_rs" sheetId="9" r:id="rId8"/>
+    <sheet name="frame1_rs" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,6 +38,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -74,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="383">
   <si>
     <t>FA08</t>
   </si>
@@ -1187,13 +1192,49 @@
   </si>
   <si>
     <t>Cant.Defect:</t>
+  </si>
+  <si>
+    <t>frame0_rs</t>
+  </si>
+  <si>
+    <t>Soporte</t>
+  </si>
+  <si>
+    <t>label_rs_0</t>
+  </si>
+  <si>
+    <t>Ingeniería</t>
+  </si>
+  <si>
+    <t>Calidad</t>
+  </si>
+  <si>
+    <t>Producción</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>frame1_rs</t>
+  </si>
+  <si>
+    <t>button_rs_0</t>
+  </si>
+  <si>
+    <t>button_rs_1</t>
+  </si>
+  <si>
+    <t>button_rs_2</t>
+  </si>
+  <si>
+    <t>button_rs_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1254,8 +1295,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1382,6 +1439,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -1480,7 +1543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1588,6 +1651,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1596,15 +1683,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2770,18 +2848,18 @@
       <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
@@ -2940,12 +3018,12 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2957,10 +3035,10 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -3004,18 +3082,18 @@
       <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
     </row>
     <row r="15" spans="1:11" ht="24" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
@@ -3234,12 +3312,12 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
       <c r="I21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -3251,12 +3329,12 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3897,7 +3975,7 @@
       <c r="A7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="39" t="s">
         <v>190</v>
       </c>
       <c r="C7" s="26"/>
@@ -3917,7 +3995,7 @@
       <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="39" t="s">
         <v>365</v>
       </c>
       <c r="C8" s="26"/>
@@ -3937,7 +4015,7 @@
       <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="39" t="s">
         <v>366</v>
       </c>
       <c r="C9" s="26"/>
@@ -3957,7 +4035,7 @@
       <c r="A10" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="40" t="s">
         <v>191</v>
       </c>
       <c r="C10" s="26"/>
@@ -3977,7 +4055,7 @@
       <c r="A11" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="40" t="s">
         <v>337</v>
       </c>
       <c r="C11" s="26"/>
@@ -3997,7 +4075,7 @@
       <c r="A12" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="40" t="s">
         <v>192</v>
       </c>
       <c r="C12" s="26"/>
@@ -4205,7 +4283,7 @@
       <c r="A20" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="39" t="s">
         <v>190</v>
       </c>
       <c r="C20" s="26"/>
@@ -4225,7 +4303,7 @@
       <c r="A21" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="39" t="s">
         <v>365</v>
       </c>
       <c r="C21" s="26"/>
@@ -4245,7 +4323,7 @@
       <c r="A22" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="39" t="s">
         <v>366</v>
       </c>
       <c r="C22" s="26"/>
@@ -4265,7 +4343,7 @@
       <c r="A23" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="40" t="s">
         <v>369</v>
       </c>
       <c r="C23" s="26"/>
@@ -4285,7 +4363,7 @@
       <c r="A24" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="40" t="s">
         <v>370</v>
       </c>
       <c r="C24" s="26"/>
@@ -4305,7 +4383,7 @@
       <c r="A25" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="40" t="s">
         <v>192</v>
       </c>
       <c r="C25" s="26"/>
@@ -4585,7 +4663,7 @@
       <c r="A33" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="39" t="s">
         <v>244</v>
       </c>
       <c r="C33" s="26" t="s">
@@ -4629,7 +4707,7 @@
       <c r="A34" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="39" t="s">
         <v>257</v>
       </c>
       <c r="C34" s="26" t="s">
@@ -4673,7 +4751,7 @@
       <c r="A35" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="39" t="s">
         <v>270</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -4717,7 +4795,7 @@
       <c r="A36" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="40" t="s">
         <v>283</v>
       </c>
       <c r="C36" s="26" t="s">
@@ -4761,7 +4839,7 @@
       <c r="A37" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="40" t="s">
         <v>323</v>
       </c>
       <c r="C37" s="26" t="s">
@@ -4805,7 +4883,7 @@
       <c r="A38" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="40" t="s">
         <v>352</v>
       </c>
       <c r="C38" s="26" t="s">
@@ -4858,7 +4936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B91243-A115-4684-A5E9-C7F45B75B539}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
@@ -4895,7 +4973,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="41" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -4947,7 +5025,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="41" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -4986,7 +5064,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5030,4 +5108,142 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9FED9B-9F3E-4AD3-9299-A6818519B4B8}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559D6342-B60B-4CB6-BE35-7B783B0A93E0}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/distribucion.xlsx
+++ b/distribucion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Registro_defectos_SEHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1B7020-DFF9-4C00-BD25-AEEA8ED4C917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC535158-8DCB-4DD9-AE8C-E6825D2596B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{C5A581BF-84BA-4755-84C9-6391AAA71289}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{C5A581BF-84BA-4755-84C9-6391AAA71289}"/>
   </bookViews>
   <sheets>
     <sheet name="Frame0" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="root_defect" sheetId="8" r:id="rId7"/>
     <sheet name="frame0_rs" sheetId="9" r:id="rId8"/>
     <sheet name="frame1_rs" sheetId="10" r:id="rId9"/>
+    <sheet name="frame2_rs" sheetId="11" r:id="rId10"/>
+    <sheet name="frame3_rs" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,9 +40,6 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -79,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="409">
   <si>
     <t>FA08</t>
   </si>
@@ -1228,6 +1227,84 @@
   </si>
   <si>
     <t>button_rs_3</t>
+  </si>
+  <si>
+    <t>Cerrar</t>
+  </si>
+  <si>
+    <t>button_rs_4</t>
+  </si>
+  <si>
+    <t>Ingeniería:</t>
+  </si>
+  <si>
+    <t>Alarma</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Calidad:</t>
+  </si>
+  <si>
+    <t>Producción:</t>
+  </si>
+  <si>
+    <t>label_rs_1</t>
+  </si>
+  <si>
+    <t>label_rs_2</t>
+  </si>
+  <si>
+    <t>label_rs_3</t>
+  </si>
+  <si>
+    <t>label_rs_4</t>
+  </si>
+  <si>
+    <t>label_rs_5</t>
+  </si>
+  <si>
+    <t>label_rs_6</t>
+  </si>
+  <si>
+    <t>label_rs_7</t>
+  </si>
+  <si>
+    <t>label_rs_8</t>
+  </si>
+  <si>
+    <t>label_rs_9</t>
+  </si>
+  <si>
+    <t>label_rs_10</t>
+  </si>
+  <si>
+    <t>label_rs_11</t>
+  </si>
+  <si>
+    <t>label_rs_12</t>
+  </si>
+  <si>
+    <t>label_rs_13</t>
+  </si>
+  <si>
+    <t>label_rs_14</t>
+  </si>
+  <si>
+    <t>label_rs_15</t>
+  </si>
+  <si>
+    <t>label_rs_16</t>
+  </si>
+  <si>
+    <t>frame2_rs</t>
+  </si>
+  <si>
+    <t>Código de colores ANDON</t>
+  </si>
+  <si>
+    <t>Todas las áreas:</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1669,7 +1746,7 @@
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1683,6 +1760,35 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2712,6 +2818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E49D0F-76BE-4150-9358-363923E82841}">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2787,8 +2894,345 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7DE6D8-39BD-4DEF-B678-30D178299BE9}">
+  <sheetPr codeName="Hoja10"/>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="50"/>
+    <col min="2" max="2" width="11.5703125" style="50" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="50" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" style="51" customWidth="1"/>
+    <col min="6" max="8" width="11.5703125" style="38" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="E3" s="57"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="F4" s="58"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" s="59"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="60" t="s">
+        <v>408</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="F6" s="58"/>
+      <c r="G6" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="H6" s="59"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54" t="s">
+        <v>390</v>
+      </c>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56" t="s">
+        <v>390</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56" t="s">
+        <v>392</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>395</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56" t="s">
+        <v>396</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>397</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>398</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>399</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="60" t="s">
+        <v>400</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>401</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>402</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>403</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>404</v>
+      </c>
+      <c r="H13" s="60" t="s">
+        <v>405</v>
+      </c>
+      <c r="I13" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C9:H9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66BC9B0-354D-4D89-96EC-FEEA3AB4F055}">
+  <sheetPr codeName="Hoja11"/>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="50"/>
+    <col min="2" max="2" width="20.7109375" style="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D077AAEA-2C62-4252-81FA-F27EE73ED170}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3358,6 +3802,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5A6CFA-0663-4AD0-B815-120C8CB129D2}">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -3571,6 +4016,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6800F5CA-0E67-4275-894A-AE98A3C80F51}">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
@@ -3692,6 +4138,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85BEB1E-8402-4209-AC46-FA5A75617005}">
+  <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:AC38"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -4934,6 +5381,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B91243-A115-4684-A5E9-C7F45B75B539}">
+  <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5061,6 +5509,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7D2FF7-64A1-41EF-8B15-47A7AFD3DE78}">
+  <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5112,6 +5561,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9FED9B-9F3E-4AD3-9299-A6818519B4B8}">
+  <sheetPr codeName="Hoja8"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5163,10 +5613,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559D6342-B60B-4CB6-BE35-7B783B0A93E0}">
+  <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/distribucion.xlsx
+++ b/distribucion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Registro_defectos_SEHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC535158-8DCB-4DD9-AE8C-E6825D2596B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4DC3C4-9D59-457E-88D6-5CBB0EDADC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{C5A581BF-84BA-4755-84C9-6391AAA71289}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{C5A581BF-84BA-4755-84C9-6391AAA71289}"/>
   </bookViews>
   <sheets>
     <sheet name="Frame0" sheetId="2" r:id="rId1"/>
@@ -19,11 +19,13 @@
     <sheet name="Frame3" sheetId="5" r:id="rId4"/>
     <sheet name="Frame4" sheetId="6" r:id="rId5"/>
     <sheet name="Frame5" sheetId="7" r:id="rId6"/>
-    <sheet name="root_defect" sheetId="8" r:id="rId7"/>
-    <sheet name="frame0_rs" sheetId="9" r:id="rId8"/>
-    <sheet name="frame1_rs" sheetId="10" r:id="rId9"/>
-    <sheet name="frame2_rs" sheetId="11" r:id="rId10"/>
-    <sheet name="frame3_rs" sheetId="13" r:id="rId11"/>
+    <sheet name="frame0_rd" sheetId="8" r:id="rId7"/>
+    <sheet name="frame1_rd" sheetId="14" r:id="rId8"/>
+    <sheet name="fram2_rd" sheetId="15" r:id="rId9"/>
+    <sheet name="frame0_rs" sheetId="9" r:id="rId10"/>
+    <sheet name="frame1_rs" sheetId="10" r:id="rId11"/>
+    <sheet name="frame2_rs" sheetId="11" r:id="rId12"/>
+    <sheet name="frame3_rs" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="465">
   <si>
     <t>FA08</t>
   </si>
@@ -1082,15 +1084,9 @@
     <t>button_16</t>
   </si>
   <si>
-    <t>root_defect_frame0</t>
-  </si>
-  <si>
     <t>Defectos SEHO</t>
   </si>
   <si>
-    <t>label_de_0</t>
-  </si>
-  <si>
     <t>Cant.Defecto:</t>
   </si>
   <si>
@@ -1305,13 +1301,187 @@
   </si>
   <si>
     <t>Todas las áreas:</t>
+  </si>
+  <si>
+    <t>label_rs_17</t>
+  </si>
+  <si>
+    <t>Fecha:</t>
+  </si>
+  <si>
+    <t>label_rd_0</t>
+  </si>
+  <si>
+    <t>Defecto 7</t>
+  </si>
+  <si>
+    <t>Defecto 8</t>
+  </si>
+  <si>
+    <t>Defecto 9</t>
+  </si>
+  <si>
+    <t>Defecto 10</t>
+  </si>
+  <si>
+    <t>Defecto 11</t>
+  </si>
+  <si>
+    <t>Defecto 12</t>
+  </si>
+  <si>
+    <t>Defecto 1</t>
+  </si>
+  <si>
+    <t>Defecto 2</t>
+  </si>
+  <si>
+    <t>Defecto 3</t>
+  </si>
+  <si>
+    <t>Defecto 4</t>
+  </si>
+  <si>
+    <t>Defecto 5</t>
+  </si>
+  <si>
+    <t>Defecto 6</t>
+  </si>
+  <si>
+    <t>Defecto 13</t>
+  </si>
+  <si>
+    <t>Defecto 14</t>
+  </si>
+  <si>
+    <t>Defecto 15</t>
+  </si>
+  <si>
+    <t>Defecto 16</t>
+  </si>
+  <si>
+    <t>Defecto 17</t>
+  </si>
+  <si>
+    <t>Defecto 18</t>
+  </si>
+  <si>
+    <t>Defecto 19</t>
+  </si>
+  <si>
+    <t>Defecto 20</t>
+  </si>
+  <si>
+    <t>Defecto 21</t>
+  </si>
+  <si>
+    <t>Defecto 22</t>
+  </si>
+  <si>
+    <t>Defecto 23</t>
+  </si>
+  <si>
+    <t>Defecto 24</t>
+  </si>
+  <si>
+    <t>Defecto 25</t>
+  </si>
+  <si>
+    <t>Defecto 26</t>
+  </si>
+  <si>
+    <t>Defecto 27</t>
+  </si>
+  <si>
+    <t>Defecto 28</t>
+  </si>
+  <si>
+    <t>Defecto 29</t>
+  </si>
+  <si>
+    <t>Defecto 30</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>FPY</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Pallets</t>
+  </si>
+  <si>
+    <t>V/SEHO</t>
+  </si>
+  <si>
+    <t>Producido</t>
+  </si>
+  <si>
+    <t>TopDefecto</t>
+  </si>
+  <si>
+    <t>C/TopDefec</t>
+  </si>
+  <si>
+    <t>%TopDefec</t>
+  </si>
+  <si>
+    <t>Total Defectos</t>
+  </si>
+  <si>
+    <t>Total Producido</t>
+  </si>
+  <si>
+    <t>FPY Total</t>
+  </si>
+  <si>
+    <t>spinbox_rs_1</t>
+  </si>
+  <si>
+    <t>spinbox_rs_2</t>
+  </si>
+  <si>
+    <t>spinbox_rs_3</t>
+  </si>
+  <si>
+    <t>spinbox_rs_4</t>
+  </si>
+  <si>
+    <t>spinbox_rs_5</t>
+  </si>
+  <si>
+    <t>spinbox_rs_6</t>
+  </si>
+  <si>
+    <t>label_rd_1</t>
+  </si>
+  <si>
+    <t>label_rd_2</t>
+  </si>
+  <si>
+    <t>label_rd_3</t>
+  </si>
+  <si>
+    <t>menu_rd_1</t>
+  </si>
+  <si>
+    <t>Buscar</t>
+  </si>
+  <si>
+    <t>button_rd_1</t>
+  </si>
+  <si>
+    <t>date_rd_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1388,8 +1558,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1522,8 +1699,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2CEEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF83E28E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1616,11 +1811,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1752,6 +1982,18 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1761,34 +2003,69 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2392,8 +2669,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD9D9D9"/>
+      <color rgb="FFFFFFC9"/>
+      <color rgb="FFDFF4FD"/>
+      <color rgb="FFF2CEEF"/>
+      <color rgb="FF83E28E"/>
       <color rgb="FFFF3737"/>
-      <color rgb="FFFFFFC9"/>
       <color rgb="FFFF8989"/>
       <color rgb="FFE97132"/>
       <color rgb="FFDCFECE"/>
@@ -2895,27 +3176,165 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9FED9B-9F3E-4AD3-9299-A6818519B4B8}">
+  <sheetPr codeName="Hoja8"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559D6342-B60B-4CB6-BE35-7B783B0A93E0}">
+  <sheetPr codeName="Hoja9"/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>373</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>380</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7DE6D8-39BD-4DEF-B678-30D178299BE9}">
   <sheetPr codeName="Hoja10"/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="50"/>
-    <col min="2" max="2" width="11.5703125" style="50" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="50" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" style="51" customWidth="1"/>
-    <col min="6" max="8" width="11.5703125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="8" width="11.5703125" style="38" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>42</v>
@@ -2943,12 +3362,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="54" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D2" s="54"/>
       <c r="E2" s="54"/>
@@ -2958,56 +3377,56 @@
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
-        <v>385</v>
+      <c r="B3" s="17"/>
+      <c r="C3" s="47" t="s">
+        <v>383</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="E3" s="57"/>
+        <v>384</v>
+      </c>
+      <c r="E3" s="48"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56" t="s">
-        <v>388</v>
+      <c r="B4" s="17"/>
+      <c r="C4" s="47" t="s">
+        <v>386</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>387</v>
-      </c>
-      <c r="F4" s="58"/>
+        <v>384</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="F4" s="49"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56" t="s">
-        <v>389</v>
+      <c r="B5" s="17"/>
+      <c r="C5" s="47" t="s">
+        <v>387</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>387</v>
-      </c>
-      <c r="F5" s="59"/>
+        <v>384</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="F5" s="55"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="17"/>
@@ -3016,27 +3435,27 @@
       <c r="A6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="60" t="s">
-        <v>408</v>
+      <c r="B6" s="17"/>
+      <c r="C6" s="47" t="s">
+        <v>406</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>387</v>
-      </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="57" t="s">
-        <v>387</v>
-      </c>
-      <c r="H6" s="59"/>
+        <v>384</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="H6" s="50"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>42</v>
@@ -3064,12 +3483,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="54" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D9" s="54"/>
       <c r="E9" s="54"/>
@@ -3079,59 +3498,59 @@
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="D10" s="47" t="s">
         <v>390</v>
       </c>
-      <c r="D10" s="56" t="s">
-        <v>391</v>
-      </c>
-      <c r="E10" s="57"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="47" t="s">
+        <v>391</v>
+      </c>
+      <c r="D11" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="E11" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="F11" s="47" t="s">
         <v>394</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>395</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="47" t="s">
+        <v>395</v>
+      </c>
+      <c r="D12" s="47" t="s">
         <v>396</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="E12" s="47" t="s">
         <v>397</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="F12" s="47" t="s">
         <v>398</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>399</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -3141,24 +3560,24 @@
       <c r="A13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="60" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="47" t="s">
+        <v>399</v>
+      </c>
+      <c r="D13" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="E13" s="47" t="s">
         <v>401</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="F13" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="G13" s="47" t="s">
         <v>403</v>
       </c>
-      <c r="G13" s="60" t="s">
-        <v>404</v>
-      </c>
-      <c r="H13" s="60" t="s">
-        <v>405</v>
+      <c r="H13" s="47" t="s">
+        <v>407</v>
       </c>
       <c r="I13" s="17"/>
     </row>
@@ -3172,7 +3591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66BC9B0-354D-4D89-96EC-FEEA3AB4F055}">
   <sheetPr codeName="Hoja11"/>
   <dimension ref="A1:B10"/>
@@ -3183,13 +3602,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="50"/>
-    <col min="2" max="2" width="20.7109375" style="50" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>42</v>
@@ -3199,15 +3617,15 @@
       <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="52" t="s">
-        <v>383</v>
+      <c r="B2" s="3" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>42</v>
@@ -3217,8 +3635,8 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>384</v>
+      <c r="B6" s="38" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3292,18 +3710,18 @@
       <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
@@ -3462,12 +3880,12 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -3479,10 +3897,10 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -3526,18 +3944,18 @@
       <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="24" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
@@ -3756,12 +4174,12 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -3773,12 +4191,12 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -4020,7 +4438,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4142,7 +4560,7 @@
   <dimension ref="A1:AC38"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4443,7 +4861,7 @@
         <v>58</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="27"/>
@@ -4463,7 +4881,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="27"/>
@@ -4500,10 +4918,10 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="27"/>
@@ -4520,7 +4938,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>192</v>
@@ -4751,7 +5169,7 @@
         <v>58</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -4771,7 +5189,7 @@
         <v>59</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -4791,7 +5209,7 @@
         <v>159</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
@@ -4808,10 +5226,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
@@ -4828,7 +5246,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B25" s="40" t="s">
         <v>192</v>
@@ -5284,90 +5702,90 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B37" s="40" t="s">
         <v>323</v>
       </c>
       <c r="C37" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="E37" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="F37" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="G37" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="H37" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="I37" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="H37" s="27" t="s">
+      <c r="J37" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="I37" s="26" t="s">
+      <c r="K37" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="J37" s="27" t="s">
+      <c r="L37" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="K37" s="26" t="s">
+      <c r="M37" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="L37" s="27" t="s">
+      <c r="N37" s="27" t="s">
         <v>349</v>
-      </c>
-      <c r="M37" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="N37" s="27" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B38" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="D38" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="E38" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="F38" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="G38" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="H38" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="I38" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="H38" s="27" t="s">
+      <c r="J38" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="I38" s="26" t="s">
+      <c r="K38" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="J38" s="27" t="s">
+      <c r="L38" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="K38" s="26" t="s">
+      <c r="M38" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="L38" s="27" t="s">
+      <c r="N38" s="27" t="s">
         <v>362</v>
-      </c>
-      <c r="M38" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="N38" s="27" t="s">
-        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -5477,7 +5895,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>328</v>
@@ -5495,7 +5913,7 @@
         <v>333</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="12:12" x14ac:dyDescent="0.25">
@@ -5512,19 +5930,19 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="38" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>42</v>
@@ -5535,12 +5953,12 @@
         <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>42</v>
@@ -5551,7 +5969,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>336</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -5560,140 +5978,691 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9FED9B-9F3E-4AD3-9299-A6818519B4B8}">
-  <sheetPr codeName="Hoja8"/>
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDF46F0-CFBB-44D9-BD00-CC34EF9E6BC8}">
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="2" max="12" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="C1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="E2" s="56">
+        <v>46006</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>373</v>
+      <c r="B5" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>464</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="M5" s="61" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559D6342-B60B-4CB6-BE35-7B783B0A93E0}">
-  <sheetPr codeName="Hoja9"/>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87CC77D-451D-4938-839F-1695B8C726C1}">
+  <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="5" width="20.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="71"/>
+      <c r="F1" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="G1" s="71"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>374</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>375</v>
-      </c>
-      <c r="D2" s="44" t="s">
+      <c r="B2" s="67" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73" t="s">
+        <v>451</v>
+      </c>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="E2" s="43" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="71"/>
+      <c r="D6" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E6" s="71"/>
+      <c r="F6" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="G6" s="71"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>381</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>382</v>
-      </c>
+      <c r="B7" s="67" t="s">
+        <v>442</v>
+      </c>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>449</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="E8" s="72"/>
+      <c r="F8" s="73" t="s">
+        <v>441</v>
+      </c>
+      <c r="G8" s="73"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E19" s="62" t="s">
+        <v>443</v>
+      </c>
+      <c r="F19" s="62" t="s">
+        <v>444</v>
+      </c>
+      <c r="G19" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="62" t="s">
+        <v>445</v>
+      </c>
+      <c r="I19" s="62" t="s">
+        <v>441</v>
+      </c>
+      <c r="J19" s="68" t="s">
+        <v>446</v>
+      </c>
+      <c r="K19" s="69"/>
+      <c r="L19" s="62" t="s">
+        <v>447</v>
+      </c>
+      <c r="M19" s="62" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E20" s="63">
+        <v>1</v>
+      </c>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E22" s="63">
+        <v>3</v>
+      </c>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E23" s="3">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E24" s="63">
+        <v>5</v>
+      </c>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="3">
+        <v>6</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="63">
+        <v>7</v>
+      </c>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E27" s="3">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E28" s="63">
+        <v>9</v>
+      </c>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E29" s="3">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="C59" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/distribucion.xlsx
+++ b/distribucion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Registro_defectos_SEHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4DC3C4-9D59-457E-88D6-5CBB0EDADC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB08069B-9662-4589-B8C8-86915355B834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{C5A581BF-84BA-4755-84C9-6391AAA71289}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{C5A581BF-84BA-4755-84C9-6391AAA71289}"/>
   </bookViews>
   <sheets>
     <sheet name="Frame0" sheetId="2" r:id="rId1"/>
@@ -1994,6 +1994,22 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2003,69 +2019,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3366,14 +3366,14 @@
         <v>41</v>
       </c>
       <c r="B2" s="14"/>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="74" t="s">
         <v>405</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3426,7 +3426,7 @@
       <c r="E5" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="F5" s="55"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="17"/>
@@ -3487,14 +3487,14 @@
         <v>41</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="74" t="s">
         <v>388</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3710,18 +3710,18 @@
       <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
@@ -3880,12 +3880,12 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -3897,10 +3897,10 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -3944,18 +3944,18 @@
       <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
     </row>
     <row r="15" spans="1:11" ht="24" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
@@ -4174,12 +4174,12 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
       <c r="I21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -4191,12 +4191,12 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -4224,7 +4224,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4438,7 +4438,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5930,7 +5930,7 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -5982,7 +5982,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I5" sqref="I5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6031,7 +6031,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
@@ -6044,7 +6044,7 @@
       <c r="D2" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="52">
         <v>46006</v>
       </c>
       <c r="F2" s="14" t="s">
@@ -6117,40 +6117,40 @@
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="75" t="s">
         <v>464</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="M5" s="15" t="s">
         <v>463</v>
       </c>
     </row>
@@ -6164,7 +6164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87CC77D-451D-4938-839F-1695B8C726C1}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -6174,157 +6174,157 @@
       <c r="A1" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="70" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="70" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="71"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>449</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61" t="s">
         <v>450</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="62" t="s">
         <v>451</v>
       </c>
-      <c r="G3" s="73"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="70" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="70" t="s">
+      <c r="E6" s="65"/>
+      <c r="F6" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="71"/>
+      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="61" t="s">
         <v>449</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72" t="s">
+      <c r="C8" s="61"/>
+      <c r="D8" s="61" t="s">
         <v>450</v>
       </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73" t="s">
+      <c r="E8" s="61"/>
+      <c r="F8" s="62" t="s">
         <v>441</v>
       </c>
-      <c r="G8" s="73"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="54" t="s">
         <v>443</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="54" t="s">
         <v>444</v>
       </c>
-      <c r="G19" s="62" t="s">
+      <c r="G19" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="54" t="s">
         <v>445</v>
       </c>
-      <c r="I19" s="62" t="s">
+      <c r="I19" s="54" t="s">
         <v>441</v>
       </c>
-      <c r="J19" s="68" t="s">
+      <c r="J19" s="72" t="s">
         <v>446</v>
       </c>
-      <c r="K19" s="69"/>
-      <c r="L19" s="62" t="s">
+      <c r="K19" s="73"/>
+      <c r="L19" s="54" t="s">
         <v>447</v>
       </c>
-      <c r="M19" s="62" t="s">
+      <c r="M19" s="54" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E20" s="63">
+      <c r="E20" s="55">
         <v>1</v>
       </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E21" s="3">
@@ -6334,23 +6334,23 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="60"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="71"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E22" s="63">
+      <c r="E22" s="55">
         <v>3</v>
       </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E23" s="3">
@@ -6360,23 +6360,23 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="60"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E24" s="63">
+      <c r="E24" s="55">
         <v>5</v>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E25" s="3">
@@ -6386,23 +6386,23 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="60"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E26" s="63">
+      <c r="E26" s="55">
         <v>7</v>
       </c>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E27" s="3">
@@ -6412,23 +6412,23 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="60"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E28" s="63">
+      <c r="E28" s="55">
         <v>9</v>
       </c>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
@@ -6444,8 +6444,8 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="60"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="71"/>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
     </row>
@@ -6631,13 +6631,17 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -6651,17 +6655,13 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/distribucion.xlsx
+++ b/distribucion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Registro_defectos_SEHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB08069B-9662-4589-B8C8-86915355B834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2A5973-1D5A-4DB0-A362-F674D5C873EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{C5A581BF-84BA-4755-84C9-6391AAA71289}"/>
   </bookViews>
@@ -1850,7 +1850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2019,52 +2019,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5982,7 +5985,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:M5"/>
+      <selection activeCell="F21" sqref="F21:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6032,7 +6035,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -6114,43 +6117,43 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="75" t="s">
         <v>458</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="75" t="s">
         <v>461</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="75" t="s">
         <v>459</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="76" t="s">
         <v>464</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="75" t="s">
         <v>452</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="75" t="s">
         <v>453</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="75" t="s">
         <v>454</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="75" t="s">
         <v>460</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="75" t="s">
         <v>455</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="75" t="s">
         <v>456</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="75" t="s">
         <v>457</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="75" t="s">
         <v>463</v>
       </c>
     </row>
@@ -6162,10 +6165,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87CC77D-451D-4938-839F-1695B8C726C1}">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6174,390 +6177,380 @@
       <c r="A1" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="64" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="65"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="66" t="s">
         <v>442</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="69" t="s">
         <v>449</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="69" t="s">
         <v>450</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62" t="s">
+      <c r="E3" s="69"/>
+      <c r="F3" s="70" t="s">
         <v>451</v>
       </c>
-      <c r="G3" s="62"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="64" t="s">
+      <c r="C6" s="68"/>
+      <c r="D6" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="64" t="s">
+      <c r="E6" s="68"/>
+      <c r="F6" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="65"/>
+      <c r="G6" s="68"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="66" t="s">
         <v>442</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="69" t="s">
         <v>449</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61" t="s">
+      <c r="C8" s="69"/>
+      <c r="D8" s="69" t="s">
         <v>450</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62" t="s">
+      <c r="E8" s="69"/>
+      <c r="F8" s="70" t="s">
         <v>441</v>
       </c>
-      <c r="G8" s="62"/>
+      <c r="G8" s="70"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E19" s="54" t="s">
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O24" s="54" t="s">
         <v>443</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="P24" s="54" t="s">
         <v>444</v>
       </c>
-      <c r="G19" s="54" t="s">
+      <c r="Q24" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="54" t="s">
+      <c r="R24" s="54" t="s">
         <v>445</v>
       </c>
-      <c r="I19" s="54" t="s">
+      <c r="S24" s="54" t="s">
         <v>441</v>
       </c>
-      <c r="J19" s="72" t="s">
+      <c r="T24" s="64" t="s">
         <v>446</v>
       </c>
-      <c r="K19" s="73"/>
-      <c r="L19" s="54" t="s">
+      <c r="U24" s="65"/>
+      <c r="V24" s="54" t="s">
         <v>447</v>
       </c>
-      <c r="M19" s="54" t="s">
+      <c r="W24" s="54" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E20" s="55">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O25" s="55">
         <v>1</v>
       </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E21" s="3">
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O26" s="3">
         <v>2</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E22" s="55">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O27" s="55">
         <v>3</v>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E23" s="3">
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O28" s="3">
         <v>4</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E24" s="55">
-        <v>5</v>
-      </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E25" s="3">
-        <v>6</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E26" s="55">
-        <v>7</v>
-      </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E27" s="3">
-        <v>8</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E28" s="55">
-        <v>9</v>
-      </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="E29" s="3">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O29" s="55">
+        <v>5</v>
+      </c>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>416</v>
       </c>
       <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O30" s="3">
+        <v>6</v>
+      </c>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>417</v>
       </c>
       <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O31" s="55">
+        <v>7</v>
+      </c>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>418</v>
       </c>
       <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="O32" s="3">
+        <v>8</v>
+      </c>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>419</v>
       </c>
       <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="O33" s="55">
+        <v>9</v>
+      </c>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
         <v>420</v>
       </c>
       <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="O34" s="3">
+        <v>10</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>421</v>
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>410</v>
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>411</v>
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
         <v>412</v>
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
         <v>413</v>
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
         <v>414</v>
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>415</v>
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
         <v>422</v>
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>423</v>
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
         <v>424</v>
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>425</v>
       </c>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
         <v>426</v>
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
         <v>427</v>
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>428</v>
       </c>
@@ -6631,17 +6624,13 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -6655,13 +6644,17 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/distribucion.xlsx
+++ b/distribucion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Registro_defectos_SEHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2A5973-1D5A-4DB0-A362-F674D5C873EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E776637F-B99D-44EE-B02E-1DDBD0B91018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{C5A581BF-84BA-4755-84C9-6391AAA71289}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C5A581BF-84BA-4755-84C9-6391AAA71289}"/>
   </bookViews>
   <sheets>
     <sheet name="Frame0" sheetId="2" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="467">
   <si>
     <t>FA08</t>
   </si>
@@ -1475,6 +1475,12 @@
   </si>
   <si>
     <t>date_rd_1</t>
+  </si>
+  <si>
+    <t>button_17</t>
+  </si>
+  <si>
+    <t>Actualizar</t>
   </si>
 </sst>
 </file>
@@ -1850,7 +1856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2019,6 +2025,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2037,37 +2067,7 @@
     <xf numFmtId="0" fontId="5" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4438,15 +4438,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6800F5CA-0E67-4275-894A-AE98A3C80F51}">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>147</v>
       </c>
@@ -4471,8 +4471,11 @@
       <c r="H1" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
@@ -4497,8 +4500,11 @@
       <c r="H2" s="14" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>147</v>
       </c>
@@ -4523,8 +4529,11 @@
       <c r="H4" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
@@ -4548,6 +4557,9 @@
       </c>
       <c r="H5" s="14" t="s">
         <v>158</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -4562,8 +4574,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:AC38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5806,7 +5818,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6120,40 +6132,40 @@
       <c r="A5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="52" t="s">
         <v>464</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="K5" s="75" t="s">
+      <c r="K5" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="L5" s="75" t="s">
+      <c r="L5" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="M5" s="75" t="s">
+      <c r="M5" s="14" t="s">
         <v>463</v>
       </c>
     </row>
@@ -6167,8 +6179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87CC77D-451D-4938-839F-1695B8C726C1}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6177,117 +6189,117 @@
       <c r="A1" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="67" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="67" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="68"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="61" t="s">
         <v>449</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61" t="s">
         <v>450</v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="62" t="s">
         <v>451</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="67" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="67" t="s">
+      <c r="E6" s="65"/>
+      <c r="F6" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="68"/>
+      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="61" t="s">
         <v>449</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69" t="s">
+      <c r="C8" s="61"/>
+      <c r="D8" s="61" t="s">
         <v>450</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70" t="s">
+      <c r="E8" s="61"/>
+      <c r="F8" s="62" t="s">
         <v>441</v>
       </c>
-      <c r="G8" s="70"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="O24" s="54" t="s">
@@ -6305,10 +6317,10 @@
       <c r="S24" s="54" t="s">
         <v>441</v>
       </c>
-      <c r="T24" s="64" t="s">
+      <c r="T24" s="72" t="s">
         <v>446</v>
       </c>
-      <c r="U24" s="65"/>
+      <c r="U24" s="73"/>
       <c r="V24" s="54" t="s">
         <v>447</v>
       </c>
@@ -6324,8 +6336,8 @@
       <c r="Q25" s="55"/>
       <c r="R25" s="55"/>
       <c r="S25" s="55"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="61"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="69"/>
       <c r="V25" s="56"/>
       <c r="W25" s="56"/>
     </row>
@@ -6337,8 +6349,8 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="63"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="71"/>
       <c r="V26" s="17"/>
       <c r="W26" s="17"/>
     </row>
@@ -6350,8 +6362,8 @@
       <c r="Q27" s="55"/>
       <c r="R27" s="55"/>
       <c r="S27" s="55"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="61"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="69"/>
       <c r="V27" s="56"/>
       <c r="W27" s="56"/>
     </row>
@@ -6363,8 +6375,8 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="62"/>
-      <c r="U28" s="63"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="71"/>
       <c r="V28" s="17"/>
       <c r="W28" s="17"/>
     </row>
@@ -6382,8 +6394,8 @@
       <c r="Q29" s="55"/>
       <c r="R29" s="55"/>
       <c r="S29" s="55"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="61"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="69"/>
       <c r="V29" s="56"/>
       <c r="W29" s="56"/>
     </row>
@@ -6399,8 +6411,8 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="63"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="71"/>
       <c r="V30" s="17"/>
       <c r="W30" s="17"/>
     </row>
@@ -6416,8 +6428,8 @@
       <c r="Q31" s="55"/>
       <c r="R31" s="55"/>
       <c r="S31" s="55"/>
-      <c r="T31" s="60"/>
-      <c r="U31" s="61"/>
+      <c r="T31" s="68"/>
+      <c r="U31" s="69"/>
       <c r="V31" s="56"/>
       <c r="W31" s="56"/>
     </row>
@@ -6433,8 +6445,8 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="63"/>
+      <c r="T32" s="70"/>
+      <c r="U32" s="71"/>
       <c r="V32" s="17"/>
       <c r="W32" s="17"/>
     </row>
@@ -6450,8 +6462,8 @@
       <c r="Q33" s="55"/>
       <c r="R33" s="55"/>
       <c r="S33" s="55"/>
-      <c r="T33" s="60"/>
-      <c r="U33" s="61"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="69"/>
       <c r="V33" s="56"/>
       <c r="W33" s="56"/>
     </row>
@@ -6467,8 +6479,8 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="63"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="71"/>
       <c r="V34" s="17"/>
       <c r="W34" s="17"/>
     </row>
@@ -6624,13 +6636,17 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -6644,17 +6660,13 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/distribucion.xlsx
+++ b/distribucion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Registro_defectos_SEHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E776637F-B99D-44EE-B02E-1DDBD0B91018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0A5482-F793-479A-8DD4-0419B53271EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C5A581BF-84BA-4755-84C9-6391AAA71289}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{C5A581BF-84BA-4755-84C9-6391AAA71289}"/>
   </bookViews>
   <sheets>
     <sheet name="Frame0" sheetId="2" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="469">
   <si>
     <t>FA08</t>
   </si>
@@ -1084,9 +1084,6 @@
     <t>button_16</t>
   </si>
   <si>
-    <t>Defectos SEHO</t>
-  </si>
-  <si>
     <t>Cant.Defecto:</t>
   </si>
   <si>
@@ -1481,6 +1478,15 @@
   </si>
   <si>
     <t>Actualizar</t>
+  </si>
+  <si>
+    <t>frame0_rd</t>
+  </si>
+  <si>
+    <t>Logo_ELRAD_rd</t>
+  </si>
+  <si>
+    <t>Logo_SEHO_rd</t>
   </si>
 </sst>
 </file>
@@ -2025,47 +2031,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3106,7 +3112,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3195,7 +3201,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>42</v>
@@ -3206,12 +3212,12 @@
         <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>42</v>
@@ -3222,7 +3228,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -3236,7 +3242,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,7 +3252,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>42</v>
@@ -3266,21 +3272,21 @@
         <v>41</v>
       </c>
       <c r="B2" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="C2" s="46" t="s">
         <v>372</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="D2" s="44" t="s">
         <v>373</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>374</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>42</v>
@@ -3300,16 +3306,16 @@
         <v>41</v>
       </c>
       <c r="B6" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="D6" s="45" t="s">
         <v>378</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="E6" s="45" t="s">
         <v>379</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -3324,7 +3330,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B1" sqref="B1:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3337,7 +3343,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>42</v>
@@ -3370,7 +3376,7 @@
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="74" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D2" s="74"/>
       <c r="E2" s="74"/>
@@ -3385,10 +3391,10 @@
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="47" t="s">
+        <v>382</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>383</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>384</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="3"/>
@@ -3402,13 +3408,13 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D4" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>384</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>385</v>
       </c>
       <c r="F4" s="49"/>
       <c r="G4" s="3"/>
@@ -3421,13 +3427,13 @@
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="47" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D5" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="48" t="s">
         <v>384</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>385</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="3"/>
@@ -3440,17 +3446,17 @@
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="47" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D6" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="E6" s="48" t="s">
         <v>384</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>385</v>
       </c>
       <c r="F6" s="49"/>
       <c r="G6" s="48" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H6" s="50"/>
       <c r="I6" s="17"/>
@@ -3458,7 +3464,7 @@
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>42</v>
@@ -3491,7 +3497,7 @@
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="74" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D9" s="74"/>
       <c r="E9" s="74"/>
@@ -3506,10 +3512,10 @@
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="D10" s="47" t="s">
         <v>389</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>390</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="3"/>
@@ -3523,16 +3529,16 @@
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="D11" s="47" t="s">
         <v>391</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="E11" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="F11" s="47" t="s">
         <v>393</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>394</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -3544,16 +3550,16 @@
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="47" t="s">
+        <v>394</v>
+      </c>
+      <c r="D12" s="47" t="s">
         <v>395</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="E12" s="47" t="s">
         <v>396</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="F12" s="47" t="s">
         <v>397</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>398</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -3565,22 +3571,22 @@
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="47" t="s">
+        <v>398</v>
+      </c>
+      <c r="D13" s="47" t="s">
         <v>399</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="E13" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="F13" s="47" t="s">
         <v>401</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="G13" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="G13" s="47" t="s">
-        <v>403</v>
-      </c>
       <c r="H13" s="47" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I13" s="17"/>
     </row>
@@ -3610,7 +3616,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>42</v>
@@ -3621,14 +3627,14 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>42</v>
@@ -3639,7 +3645,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3657,7 +3663,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4440,7 +4446,7 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -4501,7 +4507,7 @@
         <v>150</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4559,7 +4565,7 @@
         <v>158</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -4575,7 +4581,7 @@
   <dimension ref="A1:AC38"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:N38"/>
+      <selection activeCell="B3" sqref="B3:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4876,7 +4882,7 @@
         <v>58</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="27"/>
@@ -4896,7 +4902,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="27"/>
@@ -4933,10 +4939,10 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="27"/>
@@ -4953,7 +4959,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>192</v>
@@ -5184,7 +5190,7 @@
         <v>58</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -5204,7 +5210,7 @@
         <v>59</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -5224,7 +5230,7 @@
         <v>159</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
@@ -5241,10 +5247,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
@@ -5261,7 +5267,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B25" s="40" t="s">
         <v>192</v>
@@ -5717,90 +5723,90 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B37" s="40" t="s">
         <v>323</v>
       </c>
       <c r="C37" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D37" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="E37" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="F37" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="G37" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="H37" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="H37" s="27" t="s">
+      <c r="I37" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="I37" s="26" t="s">
+      <c r="J37" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="J37" s="27" t="s">
+      <c r="K37" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="K37" s="26" t="s">
+      <c r="L37" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="L37" s="27" t="s">
+      <c r="M37" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="M37" s="26" t="s">
+      <c r="N37" s="27" t="s">
         <v>348</v>
-      </c>
-      <c r="N37" s="27" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B38" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="D38" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="E38" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="F38" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="G38" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="H38" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="H38" s="27" t="s">
+      <c r="I38" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="I38" s="26" t="s">
+      <c r="J38" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="J38" s="27" t="s">
+      <c r="K38" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="K38" s="26" t="s">
+      <c r="L38" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="L38" s="27" t="s">
+      <c r="M38" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="M38" s="26" t="s">
+      <c r="N38" s="27" t="s">
         <v>361</v>
-      </c>
-      <c r="N38" s="27" t="s">
-        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -5818,7 +5824,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B2" sqref="B2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5910,7 +5916,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>328</v>
@@ -5928,7 +5934,7 @@
         <v>333</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="12:12" x14ac:dyDescent="0.25">
@@ -5943,48 +5949,80 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7D2FF7-64A1-41EF-8B15-47A7AFD3DE78}">
   <sheetPr codeName="Hoja7"/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A2:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B3" s="7" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>409</v>
+      <c r="B7" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -6007,7 +6045,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>42</v>
@@ -6057,7 +6095,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E2" s="52">
         <v>46006</v>
@@ -6084,12 +6122,12 @@
         <v>150</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>42</v>
@@ -6133,40 +6171,40 @@
         <v>41</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="E5" s="52" t="s">
-        <v>464</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="H5" s="14" t="s">
+      <c r="J5" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="J5" s="14" t="s">
+      <c r="K5" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="L5" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="L5" s="14" t="s">
-        <v>457</v>
-      </c>
       <c r="M5" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -6177,316 +6215,325 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87CC77D-451D-4938-839F-1695B8C726C1}">
-  <dimension ref="A1:W59"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="B1" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="64" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="65"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>442</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="B2" s="66" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="69" t="s">
+        <v>448</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69" t="s">
         <v>449</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61" t="s">
+      <c r="E3" s="69"/>
+      <c r="F3" s="70" t="s">
         <v>450</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62" t="s">
-        <v>451</v>
-      </c>
-      <c r="G3" s="62"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="B6" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="64" t="s">
+      <c r="C6" s="68"/>
+      <c r="D6" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="64" t="s">
+      <c r="E6" s="68"/>
+      <c r="F6" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="65"/>
+      <c r="G6" s="68"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>442</v>
-      </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
+      <c r="B7" s="66" t="s">
+        <v>441</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="69" t="s">
+        <v>448</v>
+      </c>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69" t="s">
         <v>449</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61" t="s">
-        <v>450</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62" t="s">
-        <v>441</v>
-      </c>
-      <c r="G8" s="62"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70" t="s">
+        <v>440</v>
+      </c>
+      <c r="G8" s="70"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O23" s="54" t="s">
+        <v>442</v>
+      </c>
+      <c r="P23" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q23" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="R23" s="54" t="s">
+        <v>444</v>
+      </c>
+      <c r="S23" s="54" t="s">
+        <v>440</v>
+      </c>
+      <c r="T23" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="U23" s="65"/>
+      <c r="V23" s="54" t="s">
+        <v>446</v>
+      </c>
+      <c r="W23" s="54" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="O24" s="54" t="s">
-        <v>443</v>
-      </c>
-      <c r="P24" s="54" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q24" s="54" t="s">
+      <c r="O24" s="55">
+        <v>1</v>
+      </c>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O25" s="3">
+        <v>2</v>
+      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O26" s="55">
+        <v>3</v>
+      </c>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O27" s="3">
+        <v>4</v>
+      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="R24" s="54" t="s">
-        <v>445</v>
-      </c>
-      <c r="S24" s="54" t="s">
-        <v>441</v>
-      </c>
-      <c r="T24" s="72" t="s">
-        <v>446</v>
-      </c>
-      <c r="U24" s="73"/>
-      <c r="V24" s="54" t="s">
-        <v>447</v>
-      </c>
-      <c r="W24" s="54" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="O25" s="55">
-        <v>1</v>
-      </c>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="O26" s="3">
-        <v>2</v>
-      </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="70"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="O27" s="55">
-        <v>3</v>
-      </c>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="68"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="O28" s="3">
-        <v>4</v>
-      </c>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="70"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
+      <c r="C28" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="O28" s="55">
+        <v>5</v>
+      </c>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="O29" s="55">
-        <v>5</v>
-      </c>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="68"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
+      <c r="B29" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="O29" s="3">
+        <v>6</v>
+      </c>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>416</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="O30" s="3">
-        <v>6</v>
-      </c>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="70"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
+      <c r="O30" s="55">
+        <v>7</v>
+      </c>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>417</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="O31" s="55">
-        <v>7</v>
-      </c>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="55"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
+      <c r="O31" s="3">
+        <v>8</v>
+      </c>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>418</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="O32" s="3">
-        <v>8</v>
-      </c>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="70"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
+      <c r="O32" s="55">
+        <v>9</v>
+      </c>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>419</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="O33" s="55">
-        <v>9</v>
-      </c>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
+      <c r="O33" s="3">
+        <v>10</v>
+      </c>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
         <v>420</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="O34" s="3">
-        <v>10</v>
-      </c>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="70"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C35" s="3"/>
     </row>
@@ -6522,7 +6569,7 @@
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C41" s="3"/>
     </row>
@@ -6628,25 +6675,15 @@
       </c>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="C59" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -6660,13 +6697,17 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/distribucion.xlsx
+++ b/distribucion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Registro_defectos_SEHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104F1EC4-C4DE-48B5-B4A6-9586A9C42946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451E5E61-BE72-4560-8CA3-9640195952B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="9" xr2:uid="{C5A581BF-84BA-4755-84C9-6391AAA71289}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="564">
   <si>
     <t>FA08</t>
   </si>
@@ -1759,6 +1759,36 @@
   <si>
     <t>label_rd_68</t>
   </si>
+  <si>
+    <t>label_rd_69</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>label_rd_70</t>
+  </si>
+  <si>
+    <t>label_rd_71</t>
+  </si>
+  <si>
+    <t>label_rd_72</t>
+  </si>
+  <si>
+    <t>label_rd_73</t>
+  </si>
+  <si>
+    <t>label_rd_74</t>
+  </si>
+  <si>
+    <t>label_rd_75</t>
+  </si>
+  <si>
+    <t>label_rd_76</t>
+  </si>
+  <si>
+    <t>label_rd_77</t>
+  </si>
 </sst>
 </file>
 
@@ -2052,7 +2082,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2305,11 +2335,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2462,18 +2503,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2484,65 +2513,26 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="18" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2562,17 +2552,17 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2580,51 +2570,104 @@
     <xf numFmtId="0" fontId="11" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="11" fillId="18" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -67470,22 +67513,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD592614-8DC9-43CE-A579-FF730E2DB8D3}" name="Tabla2" displayName="Tabla2" ref="Q2:AC3" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD592614-8DC9-43CE-A579-FF730E2DB8D3}" name="Tabla2" displayName="Tabla2" ref="Q2:AC3" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="Q2:AC3" xr:uid="{AD592614-8DC9-43CE-A579-FF730E2DB8D3}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{8AD1C1C0-DAF0-4DAA-8ECD-4F308BD6E5D6}" name="Columna1" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{3922D55B-5DFA-4551-8802-9C796C80AED7}" name="Columna2" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{CDA108D1-A0EA-433C-A91A-415E115F64CA}" name="Columna3" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{7CDEE2C5-A77C-49F3-B780-222CE988C28A}" name="Columna4" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{C1D71BCB-FDB9-4B1B-9BB2-64EF8D3617AA}" name="Columna5" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{9FAC8EBD-B0AD-45F8-9DD2-49EAE56713FF}" name="Columna6" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{C10C2B93-ED6F-42A4-AE5E-CDDBB34435CF}" name="Columna7" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{6B436128-D8F2-469D-B633-E2961FE362C5}" name="Columna8" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{165D4C16-4AD0-4935-9AEA-D08B02858E0A}" name="Columna9" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{EE1B9C8C-277D-4A01-9B3F-CD6230EA95B2}" name="Columna10" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{AC50CBED-3BE7-4A49-9C09-65C67B48959B}" name="Columna11" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{604A7D69-35BB-4154-A719-832507E40A14}" name="Columna12" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{379348F2-2535-4142-9EEE-F234C38EEBF6}" name="Columna13" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{8AD1C1C0-DAF0-4DAA-8ECD-4F308BD6E5D6}" name="Columna1" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{3922D55B-5DFA-4551-8802-9C796C80AED7}" name="Columna2" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{CDA108D1-A0EA-433C-A91A-415E115F64CA}" name="Columna3" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{7CDEE2C5-A77C-49F3-B780-222CE988C28A}" name="Columna4" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{C1D71BCB-FDB9-4B1B-9BB2-64EF8D3617AA}" name="Columna5" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{9FAC8EBD-B0AD-45F8-9DD2-49EAE56713FF}" name="Columna6" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{C10C2B93-ED6F-42A4-AE5E-CDDBB34435CF}" name="Columna7" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{6B436128-D8F2-469D-B633-E2961FE362C5}" name="Columna8" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{165D4C16-4AD0-4935-9AEA-D08B02858E0A}" name="Columna9" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{EE1B9C8C-277D-4A01-9B3F-CD6230EA95B2}" name="Columna10" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{AC50CBED-3BE7-4A49-9C09-65C67B48959B}" name="Columna11" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{604A7D69-35BB-4154-A719-832507E40A14}" name="Columna12" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{379348F2-2535-4142-9EEE-F234C38EEBF6}" name="Columna13" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -67889,90 +67932,85 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:K11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="78" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="91" t="s">
+      <c r="E1" s="78"/>
+      <c r="F1" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="92"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="K1" s="78"/>
+      <c r="L1" s="59" t="s">
         <v>48</v>
-      </c>
-      <c r="J1" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="91" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>480</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="75" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="72" t="s">
+      <c r="C3" s="79"/>
+      <c r="D3" s="80" t="s">
+        <v>555</v>
+      </c>
+      <c r="E3" s="80"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="84" t="s">
         <v>481</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="70" t="s">
+      <c r="H3" s="85"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87" t="s">
         <v>439</v>
       </c>
-      <c r="K3" s="71"/>
-      <c r="L3" s="59" t="s">
+      <c r="K3" s="88"/>
+      <c r="L3" s="55" t="s">
         <v>482</v>
       </c>
     </row>
@@ -67980,87 +68018,87 @@
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="79" t="s">
         <v>441</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="75">
+      <c r="C4" s="79"/>
+      <c r="D4" s="80" t="e">
         <f>SUMIFS([1]Register_global!$D:$D,[1]Register_global!$A:$A,[1]Defectos!$I$9,[1]Register_global!$E:$E,[1]Defectos!$E$5,[1]Register_global!$AO:$AO,"&gt;="&amp;TEXT([1]Defectos!$G$5*24,"0"),[1]Register_global!$AO:$AO,"&lt;"&amp;TEXT([1]Defectos!$H$5*24,"0"))</f>
-        <v>40</v>
-      </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="60">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" s="80"/>
+      <c r="F4" s="56">
         <v>1</v>
       </c>
-      <c r="G4" s="69" t="e">
+      <c r="G4" s="89" t="e">
         <f>_xlfn.XLOOKUP(J4,$A$2:$A$6,#REF!,"N/A",0)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="e">
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="e">
         <f>LARGE($A$2:$A$6,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K4" s="68"/>
-      <c r="L4" s="61" t="str">
+      <c r="K4" s="90"/>
+      <c r="L4" s="57" t="str">
         <f>IFERROR(((J4*100)/#REF!),"N/A")</f>
         <v>N/A</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="79" t="s">
         <v>440</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77" t="str">
+      <c r="C5" s="79"/>
+      <c r="D5" s="72" t="str">
         <f>IFERROR(100-((#REF!*100)/#REF!),"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="60">
+      <c r="E5" s="72"/>
+      <c r="F5" s="56">
         <v>2</v>
       </c>
-      <c r="G5" s="62" t="e">
+      <c r="G5" s="81" t="e">
         <f>_xlfn.XLOOKUP(J5,$A$2:$A$6,#REF!,"N/A",0)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="63" t="e">
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71" t="e">
         <f>LARGE($A$2:$A$6,2)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K5" s="63"/>
-      <c r="L5" s="61" t="str">
+      <c r="K5" s="71"/>
+      <c r="L5" s="57" t="str">
         <f>IFERROR(((J5*100)/#REF!),"N/A")</f>
         <v>N/A</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="81"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="60">
+      <c r="A6" s="74"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="56">
         <v>3</v>
       </c>
-      <c r="G6" s="64" t="e">
+      <c r="G6" s="82" t="e">
         <f>_xlfn.XLOOKUP(J6,$A$2:$A$6,#REF!,"N/A",0)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65" t="e">
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83" t="e">
         <f>LARGE($A$2:$A$6,3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66" t="str">
+      <c r="K6" s="83"/>
+      <c r="L6" s="58" t="str">
         <f>IFERROR(((J6*100)/#REF!),"N/A")</f>
         <v>N/A</v>
       </c>
@@ -68069,171 +68107,161 @@
       <c r="A9" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="97" t="s">
+      <c r="C9" s="78"/>
+      <c r="D9" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="100" t="s">
+      <c r="E9" s="78"/>
+      <c r="F9" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="100" t="s">
+      <c r="G9" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="100" t="s">
+      <c r="H9" s="92"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="100" t="s">
+      <c r="K9" s="78"/>
+      <c r="L9" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="100" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="100" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="90" t="s">
+    <row r="10" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="75" t="s">
         <v>551</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="79" t="s">
         <v>552</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94" t="s">
+      <c r="C11" s="79"/>
+      <c r="D11" s="80" t="s">
         <v>553</v>
       </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="103" t="s">
-        <v>553</v>
-      </c>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="104" t="s">
-        <v>439</v>
-      </c>
-      <c r="K11" s="104"/>
-      <c r="L11" s="105" t="s">
-        <v>482</v>
+      <c r="E11" s="80"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="84" t="s">
+        <v>554</v>
+      </c>
+      <c r="H11" s="85"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87" t="s">
+        <v>556</v>
+      </c>
+      <c r="K11" s="88"/>
+      <c r="L11" s="55" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="94" t="s">
-        <v>441</v>
-      </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="95">
-        <f>SUMIFS([1]Register_global!$D:$D,[1]Register_global!$A:$A,[1]Defectos!$I$9,[1]Register_global!$E:$E,[1]Defectos!$E$5,[1]Register_global!$AO:$AO,"&gt;="&amp;TEXT([1]Defectos!$G$5*24,"0"),[1]Register_global!$AO:$AO,"&lt;"&amp;TEXT([1]Defectos!$H$5*24,"0"))</f>
-        <v>40</v>
-      </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="106">
-        <v>1</v>
-      </c>
-      <c r="G12" s="95" t="e">
-        <f>_xlfn.XLOOKUP(J12,$A$2:$A$6,#REF!,"N/A",0)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95" t="e">
-        <f>LARGE($A$2:$A$6,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K12" s="95"/>
-      <c r="L12" s="107" t="str">
-        <f>IFERROR(((J12*100)/#REF!),"N/A")</f>
-        <v>N/A</v>
+      <c r="B12" s="79" t="s">
+        <v>558</v>
+      </c>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80" t="s">
+        <v>559</v>
+      </c>
+      <c r="E12" s="80"/>
+      <c r="F12" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="G12" s="89" t="s">
+        <v>561</v>
+      </c>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90" t="s">
+        <v>562</v>
+      </c>
+      <c r="K12" s="90"/>
+      <c r="L12" s="57" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="79" t="s">
         <v>440</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="96" t="str">
+      <c r="C13" s="79"/>
+      <c r="D13" s="72" t="str">
         <f>IFERROR(100-((#REF!*100)/#REF!),"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="E13" s="96"/>
-      <c r="F13" s="106">
+      <c r="E13" s="72"/>
+      <c r="F13" s="56">
         <v>2</v>
       </c>
-      <c r="G13" s="95" t="e">
+      <c r="G13" s="81" t="e">
         <f>_xlfn.XLOOKUP(J13,$A$2:$A$6,#REF!,"N/A",0)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95" t="e">
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71" t="e">
         <f>LARGE($A$2:$A$6,2)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K13" s="95"/>
-      <c r="L13" s="107" t="str">
+      <c r="K13" s="71"/>
+      <c r="L13" s="57" t="str">
         <f>IFERROR(((J13*100)/#REF!),"N/A")</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="106">
+    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="74"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="56">
         <v>3</v>
       </c>
-      <c r="G14" s="95" t="e">
+      <c r="G14" s="82" t="e">
         <f>_xlfn.XLOOKUP(J14,$A$2:$A$6,#REF!,"N/A",0)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95" t="e">
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83" t="e">
         <f>LARGE($A$2:$A$6,3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K14" s="95"/>
-      <c r="L14" s="107" t="str">
+      <c r="K14" s="83"/>
+      <c r="L14" s="58" t="str">
         <f>IFERROR(((J14*100)/#REF!),"N/A")</f>
         <v>N/A</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="40">
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="G12:I12"/>
@@ -68244,18 +68272,17 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="J14:K14"/>
     <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G5:I5"/>
@@ -68264,30 +68291,35 @@
     <mergeCell ref="D5:E6"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:K3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>86.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="lessThan">
       <formula>86.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="18" operator="greaterThan">
       <formula>86.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L6">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -68325,6 +68357,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -68519,14 +68552,14 @@
         <v>41</v>
       </c>
       <c r="B2" s="14"/>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="91" t="s">
         <v>404</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -68640,14 +68673,14 @@
         <v>41</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="91" t="s">
         <v>387</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -68863,18 +68896,18 @@
       <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
@@ -69033,12 +69066,12 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -69050,10 +69083,10 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -69097,18 +69130,18 @@
       <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
     </row>
     <row r="15" spans="1:11" ht="24" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
@@ -69327,12 +69360,12 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
       <c r="I21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -69344,12 +69377,12 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -71170,102 +71203,102 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82" t="s">
+      <c r="F9" s="65"/>
+      <c r="G9" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="82"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="66" t="s">
         <v>546</v>
       </c>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="67" t="s">
         <v>547</v>
       </c>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="68" t="s">
         <v>548</v>
       </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86" t="s">
+      <c r="F12" s="68"/>
+      <c r="G12" s="69" t="s">
         <v>549</v>
       </c>
-      <c r="H12" s="86"/>
+      <c r="H12" s="69"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="89"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="89"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="89"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="87" t="s">
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="70" t="s">
         <v>550</v>
       </c>
-      <c r="H16" s="87"/>
+      <c r="H16" s="70"/>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="89"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="89"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="89"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/distribucion.xlsx
+++ b/distribucion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Registro_defectos_SEHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451E5E61-BE72-4560-8CA3-9640195952B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DA63C2-94C1-4E21-82C4-C621F3323627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="9" xr2:uid="{C5A581BF-84BA-4755-84C9-6391AAA71289}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{C5A581BF-84BA-4755-84C9-6391AAA71289}"/>
   </bookViews>
   <sheets>
     <sheet name="Frame0" sheetId="2" r:id="rId1"/>
@@ -46,6 +46,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -84,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="574">
   <si>
     <t>FA08</t>
   </si>
@@ -1789,6 +1792,36 @@
   <si>
     <t>label_rd_77</t>
   </si>
+  <si>
+    <t>label_rd_78</t>
+  </si>
+  <si>
+    <t>label_rd_79</t>
+  </si>
+  <si>
+    <t>label_rd_80</t>
+  </si>
+  <si>
+    <t>label_rd_81</t>
+  </si>
+  <si>
+    <t>label_rd_82</t>
+  </si>
+  <si>
+    <t>label_rd_83</t>
+  </si>
+  <si>
+    <t>label_rd_84</t>
+  </si>
+  <si>
+    <t>label_rd_85</t>
+  </si>
+  <si>
+    <t>label_rd_86</t>
+  </si>
+  <si>
+    <t>label_rd_87</t>
+  </si>
 </sst>
 </file>
 
@@ -1797,7 +1830,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-80A]h:mm:ss\ AM/PM;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1925,6 +1958,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2350,7 +2390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2552,10 +2592,16 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2564,25 +2610,13 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2590,6 +2624,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2606,68 +2646,26 @@
     <xf numFmtId="164" fontId="11" fillId="18" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -67513,22 +67511,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD592614-8DC9-43CE-A579-FF730E2DB8D3}" name="Tabla2" displayName="Tabla2" ref="Q2:AC3" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD592614-8DC9-43CE-A579-FF730E2DB8D3}" name="Tabla2" displayName="Tabla2" ref="Q2:AC3" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="Q2:AC3" xr:uid="{AD592614-8DC9-43CE-A579-FF730E2DB8D3}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{8AD1C1C0-DAF0-4DAA-8ECD-4F308BD6E5D6}" name="Columna1" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{3922D55B-5DFA-4551-8802-9C796C80AED7}" name="Columna2" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{CDA108D1-A0EA-433C-A91A-415E115F64CA}" name="Columna3" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{7CDEE2C5-A77C-49F3-B780-222CE988C28A}" name="Columna4" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{C1D71BCB-FDB9-4B1B-9BB2-64EF8D3617AA}" name="Columna5" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{9FAC8EBD-B0AD-45F8-9DD2-49EAE56713FF}" name="Columna6" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{C10C2B93-ED6F-42A4-AE5E-CDDBB34435CF}" name="Columna7" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{6B436128-D8F2-469D-B633-E2961FE362C5}" name="Columna8" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{165D4C16-4AD0-4935-9AEA-D08B02858E0A}" name="Columna9" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{EE1B9C8C-277D-4A01-9B3F-CD6230EA95B2}" name="Columna10" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{AC50CBED-3BE7-4A49-9C09-65C67B48959B}" name="Columna11" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{604A7D69-35BB-4154-A719-832507E40A14}" name="Columna12" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{379348F2-2535-4142-9EEE-F234C38EEBF6}" name="Columna13" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{8AD1C1C0-DAF0-4DAA-8ECD-4F308BD6E5D6}" name="Columna1" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{3922D55B-5DFA-4551-8802-9C796C80AED7}" name="Columna2" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{CDA108D1-A0EA-433C-A91A-415E115F64CA}" name="Columna3" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{7CDEE2C5-A77C-49F3-B780-222CE988C28A}" name="Columna4" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{C1D71BCB-FDB9-4B1B-9BB2-64EF8D3617AA}" name="Columna5" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{9FAC8EBD-B0AD-45F8-9DD2-49EAE56713FF}" name="Columna6" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{C10C2B93-ED6F-42A4-AE5E-CDDBB34435CF}" name="Columna7" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{6B436128-D8F2-469D-B633-E2961FE362C5}" name="Columna8" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{165D4C16-4AD0-4935-9AEA-D08B02858E0A}" name="Columna9" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{EE1B9C8C-277D-4A01-9B3F-CD6230EA95B2}" name="Columna10" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{AC50CBED-3BE7-4A49-9C09-65C67B48959B}" name="Columna11" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{604A7D69-35BB-4154-A719-832507E40A14}" name="Columna12" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{379348F2-2535-4142-9EEE-F234C38EEBF6}" name="Columna13" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -67931,8 +67929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C039144D-59C5-423E-A064-F5F056C35FE3}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67946,26 +67944,26 @@
       <c r="A1" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="77" t="s">
+      <c r="C1" s="90"/>
+      <c r="D1" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="78"/>
+      <c r="E1" s="90"/>
       <c r="F1" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="92"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="77" t="s">
+      <c r="H1" s="91"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="78"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="59" t="s">
         <v>48</v>
       </c>
@@ -67974,32 +67972,32 @@
       <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="71" t="s">
         <v>480</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>555</v>
       </c>
-      <c r="E3" s="80"/>
+      <c r="E3" s="72"/>
       <c r="F3" s="54"/>
       <c r="G3" s="84" t="s">
         <v>481</v>
@@ -68018,86 +68016,86 @@
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="71" t="s">
         <v>441</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80" t="e">
+      <c r="C4" s="71"/>
+      <c r="D4" s="72" t="e">
         <f>SUMIFS([1]Register_global!$D:$D,[1]Register_global!$A:$A,[1]Defectos!$I$9,[1]Register_global!$E:$E,[1]Defectos!$E$5,[1]Register_global!$AO:$AO,"&gt;="&amp;TEXT([1]Defectos!$G$5*24,"0"),[1]Register_global!$AO:$AO,"&lt;"&amp;TEXT([1]Defectos!$H$5*24,"0"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E4" s="80"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="56">
         <v>1</v>
       </c>
-      <c r="G4" s="89" t="e">
+      <c r="G4" s="73" t="e">
         <f>_xlfn.XLOOKUP(J4,$A$2:$A$6,#REF!,"N/A",0)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="e">
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="e">
         <f>LARGE($A$2:$A$6,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K4" s="90"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="57" t="str">
         <f>IFERROR(((J4*100)/#REF!),"N/A")</f>
         <v>N/A</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="71" t="s">
         <v>440</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="72" t="str">
+      <c r="C5" s="71"/>
+      <c r="D5" s="77" t="str">
         <f>IFERROR(100-((#REF!*100)/#REF!),"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="E5" s="72"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="56">
         <v>2</v>
       </c>
-      <c r="G5" s="81" t="e">
+      <c r="G5" s="78" t="e">
         <f>_xlfn.XLOOKUP(J5,$A$2:$A$6,#REF!,"N/A",0)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71" t="e">
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79" t="e">
         <f>LARGE($A$2:$A$6,2)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K5" s="71"/>
+      <c r="K5" s="79"/>
       <c r="L5" s="57" t="str">
         <f>IFERROR(((J5*100)/#REF!),"N/A")</f>
         <v>N/A</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="56">
         <v>3</v>
       </c>
-      <c r="G6" s="82" t="e">
+      <c r="G6" s="80" t="e">
         <f>_xlfn.XLOOKUP(J6,$A$2:$A$6,#REF!,"N/A",0)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83" t="e">
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81" t="e">
         <f>LARGE($A$2:$A$6,3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K6" s="83"/>
+      <c r="K6" s="81"/>
       <c r="L6" s="58" t="str">
         <f>IFERROR(((J6*100)/#REF!),"N/A")</f>
         <v>N/A</v>
@@ -68107,26 +68105,26 @@
       <c r="A9" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="77" t="s">
+      <c r="C9" s="90"/>
+      <c r="D9" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="78"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="92"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="77" t="s">
+      <c r="H9" s="91"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="78"/>
+      <c r="K9" s="90"/>
       <c r="L9" s="59" t="s">
         <v>48</v>
       </c>
@@ -68135,32 +68133,32 @@
       <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="82" t="s">
         <v>551</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="71" t="s">
         <v>552</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80" t="s">
+      <c r="C11" s="71"/>
+      <c r="D11" s="72" t="s">
         <v>553</v>
       </c>
-      <c r="E11" s="80"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="54"/>
       <c r="G11" s="84" t="s">
         <v>554</v>
@@ -68179,105 +68177,92 @@
       <c r="A12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="71" t="s">
         <v>558</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80" t="s">
+      <c r="C12" s="71"/>
+      <c r="D12" s="72" t="s">
         <v>559</v>
       </c>
-      <c r="E12" s="80"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="56" t="s">
         <v>560</v>
       </c>
-      <c r="G12" s="89" t="s">
+      <c r="G12" s="73" t="s">
         <v>561</v>
       </c>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90" t="s">
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74" t="s">
         <v>562</v>
       </c>
-      <c r="K12" s="90"/>
+      <c r="K12" s="74"/>
       <c r="L12" s="57" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="79" t="s">
-        <v>440</v>
-      </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="72" t="str">
-        <f>IFERROR(100-((#REF!*100)/#REF!),"N/A")</f>
-        <v>N/A</v>
-      </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="56">
-        <v>2</v>
-      </c>
-      <c r="G13" s="81" t="e">
-        <f>_xlfn.XLOOKUP(J13,$A$2:$A$6,#REF!,"N/A",0)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71" t="e">
-        <f>LARGE($A$2:$A$6,2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K13" s="71"/>
-      <c r="L13" s="57" t="str">
-        <f>IFERROR(((J13*100)/#REF!),"N/A")</f>
-        <v>N/A</v>
+      <c r="B13" s="71" t="s">
+        <v>564</v>
+      </c>
+      <c r="C13" s="71"/>
+      <c r="D13" s="93" t="s">
+        <v>565</v>
+      </c>
+      <c r="E13" s="93"/>
+      <c r="F13" s="56" t="s">
+        <v>566</v>
+      </c>
+      <c r="G13" s="78" t="s">
+        <v>567</v>
+      </c>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="K13" s="79"/>
+      <c r="L13" s="57" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="56">
-        <v>3</v>
-      </c>
-      <c r="G14" s="82" t="e">
-        <f>_xlfn.XLOOKUP(J14,$A$2:$A$6,#REF!,"N/A",0)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83" t="e">
-        <f>LARGE($A$2:$A$6,3)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K14" s="83"/>
-      <c r="L14" s="58" t="str">
-        <f>IFERROR(((J14*100)/#REF!),"N/A")</f>
-        <v>N/A</v>
+      <c r="A14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="56" t="s">
+        <v>570</v>
+      </c>
+      <c r="G14" s="80" t="s">
+        <v>571</v>
+      </c>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81" t="s">
+        <v>572</v>
+      </c>
+      <c r="K14" s="81"/>
+      <c r="L14" s="58" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
+  <mergeCells count="39">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
@@ -68294,40 +68279,35 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
       <formula>86.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="lessThan">
       <formula>86.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="greaterThan">
       <formula>86.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L6">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
@@ -68342,6 +68322,18 @@
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
       <formula>86.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L6">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L14">
@@ -68552,14 +68544,14 @@
         <v>41</v>
       </c>
       <c r="B2" s="14"/>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="92" t="s">
         <v>404</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -68673,14 +68665,14 @@
         <v>41</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="92" t="s">
         <v>387</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -71001,7 +70993,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71322,7 +71314,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71504,8 +71496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87CC77D-451D-4938-839F-1695B8C726C1}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/distribucion.xlsx
+++ b/distribucion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Registro_defectos_SEHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DA63C2-94C1-4E21-82C4-C621F3323627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9AD0F3-D631-49AD-BA8A-70CB2DD538E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{C5A581BF-84BA-4755-84C9-6391AAA71289}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{C5A581BF-84BA-4755-84C9-6391AAA71289}"/>
   </bookViews>
   <sheets>
     <sheet name="Frame0" sheetId="2" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="579">
   <si>
     <t>FA08</t>
   </si>
@@ -1822,6 +1822,21 @@
   <si>
     <t>label_rd_87</t>
   </si>
+  <si>
+    <t>Pallets</t>
+  </si>
+  <si>
+    <t>V/SEHO</t>
+  </si>
+  <si>
+    <t>C/TopDefecto</t>
+  </si>
+  <si>
+    <t>TopDefecto</t>
+  </si>
+  <si>
+    <t>%TopDefecto</t>
+  </si>
 </sst>
 </file>
 
@@ -2390,7 +2405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2592,37 +2607,10 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2630,15 +2618,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2652,20 +2631,88 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="38">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2754,6 +2801,205 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -67511,22 +67757,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD592614-8DC9-43CE-A579-FF730E2DB8D3}" name="Tabla2" displayName="Tabla2" ref="Q2:AC3" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD592614-8DC9-43CE-A579-FF730E2DB8D3}" name="Tabla2" displayName="Tabla2" ref="Q2:AC3" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="Q2:AC3" xr:uid="{AD592614-8DC9-43CE-A579-FF730E2DB8D3}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{8AD1C1C0-DAF0-4DAA-8ECD-4F308BD6E5D6}" name="Columna1" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{3922D55B-5DFA-4551-8802-9C796C80AED7}" name="Columna2" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{CDA108D1-A0EA-433C-A91A-415E115F64CA}" name="Columna3" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{7CDEE2C5-A77C-49F3-B780-222CE988C28A}" name="Columna4" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{C1D71BCB-FDB9-4B1B-9BB2-64EF8D3617AA}" name="Columna5" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{9FAC8EBD-B0AD-45F8-9DD2-49EAE56713FF}" name="Columna6" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{C10C2B93-ED6F-42A4-AE5E-CDDBB34435CF}" name="Columna7" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{6B436128-D8F2-469D-B633-E2961FE362C5}" name="Columna8" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{165D4C16-4AD0-4935-9AEA-D08B02858E0A}" name="Columna9" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{EE1B9C8C-277D-4A01-9B3F-CD6230EA95B2}" name="Columna10" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{AC50CBED-3BE7-4A49-9C09-65C67B48959B}" name="Columna11" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{604A7D69-35BB-4154-A719-832507E40A14}" name="Columna12" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{379348F2-2535-4142-9EEE-F234C38EEBF6}" name="Columna13" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{8AD1C1C0-DAF0-4DAA-8ECD-4F308BD6E5D6}" name="Columna1" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{3922D55B-5DFA-4551-8802-9C796C80AED7}" name="Columna2" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{CDA108D1-A0EA-433C-A91A-415E115F64CA}" name="Columna3" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{7CDEE2C5-A77C-49F3-B780-222CE988C28A}" name="Columna4" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{C1D71BCB-FDB9-4B1B-9BB2-64EF8D3617AA}" name="Columna5" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{9FAC8EBD-B0AD-45F8-9DD2-49EAE56713FF}" name="Columna6" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{C10C2B93-ED6F-42A4-AE5E-CDDBB34435CF}" name="Columna7" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{6B436128-D8F2-469D-B633-E2961FE362C5}" name="Columna8" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{165D4C16-4AD0-4935-9AEA-D08B02858E0A}" name="Columna9" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{EE1B9C8C-277D-4A01-9B3F-CD6230EA95B2}" name="Columna10" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{AC50CBED-3BE7-4A49-9C09-65C67B48959B}" name="Columna11" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{604A7D69-35BB-4154-A719-832507E40A14}" name="Columna12" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{379348F2-2535-4142-9EEE-F234C38EEBF6}" name="Columna13" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{807C3920-3E36-4FED-A44E-343976B18993}" name="Tabla1" displayName="Tabla1" ref="K10:R14" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{1CDBF142-46B8-4539-A026-F389B4154794}" name="Pallets" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{C16B6F37-CBB3-4AD9-BA6D-75E07FAD3622}" name="V/SEHO" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{D65E6DFA-D408-404D-9C63-C1F754CBE96B}" name="Defectos" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{9A0E38CC-BB39-4458-B4D2-C733B3D682E2}" name="Producido" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{7DFC2CF1-E71B-4EBE-A54D-7366C9A2A878}" name="FPY" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{DC225E35-BE7A-4CA4-B9D7-8B6A7E490178}" name="TopDefecto" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{82511484-AD69-4EE7-95B9-170355C8DF18}" name="C/TopDefecto" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{6EB317C6-5621-4DB1-888A-ADE2A599E63E}" name="%TopDefecto" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -67944,26 +68206,26 @@
       <c r="A1" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="89" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="90"/>
+      <c r="E1" s="78"/>
       <c r="F1" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="91"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="89" t="s">
+      <c r="H1" s="84"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="90"/>
+      <c r="K1" s="78"/>
       <c r="L1" s="59" t="s">
         <v>48</v>
       </c>
@@ -67972,42 +68234,42 @@
       <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="82" t="s">
         <v>480</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72" t="s">
+      <c r="C3" s="82"/>
+      <c r="D3" s="83" t="s">
         <v>555</v>
       </c>
-      <c r="E3" s="72"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="54"/>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="79" t="s">
         <v>481</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87" t="s">
+      <c r="H3" s="80"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="75" t="s">
         <v>439</v>
       </c>
-      <c r="K3" s="88"/>
+      <c r="K3" s="76"/>
       <c r="L3" s="55" t="s">
         <v>482</v>
       </c>
@@ -68016,86 +68278,86 @@
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="82" t="s">
         <v>441</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72" t="e">
+      <c r="C4" s="82"/>
+      <c r="D4" s="83" t="e">
         <f>SUMIFS([1]Register_global!$D:$D,[1]Register_global!$A:$A,[1]Defectos!$I$9,[1]Register_global!$E:$E,[1]Defectos!$E$5,[1]Register_global!$AO:$AO,"&gt;="&amp;TEXT([1]Defectos!$G$5*24,"0"),[1]Register_global!$AO:$AO,"&lt;"&amp;TEXT([1]Defectos!$H$5*24,"0"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E4" s="72"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="56">
         <v>1</v>
       </c>
-      <c r="G4" s="73" t="e">
+      <c r="G4" s="90" t="e">
         <f>_xlfn.XLOOKUP(J4,$A$2:$A$6,#REF!,"N/A",0)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="e">
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="e">
         <f>LARGE($A$2:$A$6,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K4" s="74"/>
+      <c r="K4" s="91"/>
       <c r="L4" s="57" t="str">
         <f>IFERROR(((J4*100)/#REF!),"N/A")</f>
         <v>N/A</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="82" t="s">
         <v>440</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="77" t="str">
+      <c r="C5" s="82"/>
+      <c r="D5" s="87" t="str">
         <f>IFERROR(100-((#REF!*100)/#REF!),"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="E5" s="77"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="56">
         <v>2</v>
       </c>
-      <c r="G5" s="78" t="e">
+      <c r="G5" s="85" t="e">
         <f>_xlfn.XLOOKUP(J5,$A$2:$A$6,#REF!,"N/A",0)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79" t="e">
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86" t="e">
         <f>LARGE($A$2:$A$6,2)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K5" s="79"/>
+      <c r="K5" s="86"/>
       <c r="L5" s="57" t="str">
         <f>IFERROR(((J5*100)/#REF!),"N/A")</f>
         <v>N/A</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="76"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="56">
         <v>3</v>
       </c>
-      <c r="G6" s="80" t="e">
+      <c r="G6" s="88" t="e">
         <f>_xlfn.XLOOKUP(J6,$A$2:$A$6,#REF!,"N/A",0)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81" t="e">
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89" t="e">
         <f>LARGE($A$2:$A$6,3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K6" s="81"/>
+      <c r="K6" s="89"/>
       <c r="L6" s="58" t="str">
         <f>IFERROR(((J6*100)/#REF!),"N/A")</f>
         <v>N/A</v>
@@ -68105,26 +68367,26 @@
       <c r="A9" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="89" t="s">
+      <c r="C9" s="78"/>
+      <c r="D9" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="90"/>
+      <c r="E9" s="78"/>
       <c r="F9" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="89" t="s">
+      <c r="G9" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="89" t="s">
+      <c r="H9" s="84"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="90"/>
+      <c r="K9" s="78"/>
       <c r="L9" s="59" t="s">
         <v>48</v>
       </c>
@@ -68133,42 +68395,42 @@
       <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="73" t="s">
         <v>551</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="82" t="s">
         <v>552</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="72" t="s">
+      <c r="C11" s="82"/>
+      <c r="D11" s="83" t="s">
         <v>553</v>
       </c>
-      <c r="E11" s="72"/>
+      <c r="E11" s="83"/>
       <c r="F11" s="54"/>
-      <c r="G11" s="84" t="s">
+      <c r="G11" s="79" t="s">
         <v>554</v>
       </c>
-      <c r="H11" s="85"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="87" t="s">
+      <c r="H11" s="80"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="75" t="s">
         <v>556</v>
       </c>
-      <c r="K11" s="88"/>
+      <c r="K11" s="76"/>
       <c r="L11" s="55" t="s">
         <v>557</v>
       </c>
@@ -68177,26 +68439,26 @@
       <c r="A12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="82" t="s">
         <v>558</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72" t="s">
+      <c r="C12" s="82"/>
+      <c r="D12" s="83" t="s">
         <v>559</v>
       </c>
-      <c r="E12" s="72"/>
+      <c r="E12" s="83"/>
       <c r="F12" s="56" t="s">
         <v>560</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="90" t="s">
         <v>561</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74" t="s">
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91" t="s">
         <v>562</v>
       </c>
-      <c r="K12" s="74"/>
+      <c r="K12" s="91"/>
       <c r="L12" s="57" t="s">
         <v>563</v>
       </c>
@@ -68205,26 +68467,26 @@
       <c r="A13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="82" t="s">
         <v>564</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="93" t="s">
+      <c r="C13" s="82"/>
+      <c r="D13" s="92" t="s">
         <v>565</v>
       </c>
-      <c r="E13" s="93"/>
+      <c r="E13" s="92"/>
       <c r="F13" s="56" t="s">
         <v>566</v>
       </c>
-      <c r="G13" s="78" t="s">
+      <c r="G13" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79" t="s">
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86" t="s">
         <v>568</v>
       </c>
-      <c r="K13" s="79"/>
+      <c r="K13" s="86"/>
       <c r="L13" s="57" t="s">
         <v>569</v>
       </c>
@@ -68233,37 +68495,43 @@
       <c r="A14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
       <c r="F14" s="56" t="s">
         <v>570</v>
       </c>
-      <c r="G14" s="80" t="s">
+      <c r="G14" s="88" t="s">
         <v>571</v>
       </c>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81" t="s">
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89" t="s">
         <v>572</v>
       </c>
-      <c r="K14" s="81"/>
+      <c r="K14" s="89"/>
       <c r="L14" s="58" t="s">
         <v>573</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="G9:I9"/>
@@ -68278,49 +68546,43 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
       <formula>86.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="lessThan">
       <formula>86.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="greaterThan">
       <formula>86.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>86.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>86.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>86.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -68544,14 +68806,14 @@
         <v>41</v>
       </c>
       <c r="B2" s="14"/>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="93" t="s">
         <v>404</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -68665,14 +68927,14 @@
         <v>41</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="93" t="s">
         <v>387</v>
       </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -71118,10 +71380,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7D2FF7-64A1-41EF-8B15-47A7AFD3DE78}">
   <sheetPr codeName="Hoja7"/>
-  <dimension ref="A2:H19"/>
+  <dimension ref="A2:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:H15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71130,9 +71392,11 @@
     <col min="2" max="2" width="15.7109375" style="38" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>457</v>
       </c>
@@ -71146,7 +71410,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>41</v>
       </c>
@@ -71160,13 +71424,13 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>457</v>
       </c>
@@ -71180,7 +71444,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -71194,7 +71458,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E9" s="65" t="s">
         <v>42</v>
       </c>
@@ -71204,7 +71468,7 @@
       </c>
       <c r="H9" s="65"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
@@ -71214,8 +71478,32 @@
       <c r="F10" s="66"/>
       <c r="G10" s="66"/>
       <c r="H10" s="66"/>
+      <c r="K10" s="95" t="s">
+        <v>574</v>
+      </c>
+      <c r="L10" s="96" t="s">
+        <v>575</v>
+      </c>
+      <c r="M10" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="96" t="s">
+        <v>441</v>
+      </c>
+      <c r="O10" s="96" t="s">
+        <v>440</v>
+      </c>
+      <c r="P10" s="96" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q10" s="96" t="s">
+        <v>576</v>
+      </c>
+      <c r="R10" s="97" t="s">
+        <v>578</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D11" s="9" t="s">
         <v>53</v>
       </c>
@@ -71225,8 +71513,16 @@
       <c r="F11" s="67"/>
       <c r="G11" s="67"/>
       <c r="H11" s="67"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="99"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D12" s="63" t="s">
         <v>54</v>
       </c>
@@ -71238,29 +71534,53 @@
         <v>549</v>
       </c>
       <c r="H12" s="69"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="94"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D13" s="64"/>
       <c r="E13" s="68"/>
       <c r="F13" s="68"/>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="99"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D14" s="64"/>
       <c r="E14" s="68"/>
       <c r="F14" s="68"/>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="94"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D15" s="64"/>
       <c r="E15" s="68"/>
       <c r="F15" s="68"/>
       <c r="G15" s="69"/>
       <c r="H15" s="69"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D16" s="63" t="s">
         <v>55</v>
       </c>
@@ -71306,6 +71626,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -71314,7 +71637,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71496,7 +71819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87CC77D-451D-4938-839F-1695B8C726C1}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
